--- a/REGULAR/ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
+++ b/REGULAR/ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-17)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1121,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1164,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1228,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1288,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1354,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1417,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1515,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1574,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1639,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1682,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1757,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1943,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2009,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2067,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2133,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2189,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2264,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2307,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2373,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2429,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2527,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2590,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3022,12 +3034,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K148"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3206,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.116</v>
+        <v>47.307999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4494,40 +4506,38 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39">
-        <v>1</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="48">
-        <v>44963</v>
-      </c>
+      <c r="K69" s="48"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>1</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4537,20 +4547,22 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="48">
+        <v>44963</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
@@ -4561,19 +4573,21 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="48">
-        <v>45041</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4583,15 +4597,15 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="48">
+        <v>45041</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -4605,73 +4619,75 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="48">
-        <v>45090</v>
-      </c>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45078</v>
+      </c>
       <c r="B74" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="48">
-        <v>45099</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="48">
+        <v>45099</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39">
+        <v>0.16000000000000003</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="48"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4691,7 +4707,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4711,11 +4727,9 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -4729,17 +4743,13 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="48">
-        <v>45236</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45200</v>
+      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
@@ -4753,53 +4763,65 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="48">
-        <v>45287</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="A81" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="48"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="48">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="48">
+        <v>45287</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4809,11 +4831,11 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="48"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>45352</v>
+      <c r="A84" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4827,11 +4849,11 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="48"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4849,7 +4871,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4867,7 +4889,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4885,7 +4907,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4903,7 +4925,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4921,7 +4943,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4939,7 +4961,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4957,7 +4979,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4975,7 +4997,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4993,7 +5015,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5011,7 +5033,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5029,7 +5051,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5047,7 +5069,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5065,7 +5087,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5083,7 +5105,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5101,7 +5123,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5119,7 +5141,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5137,7 +5159,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5155,7 +5177,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5173,7 +5195,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5191,7 +5213,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5209,7 +5231,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5227,7 +5249,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5245,7 +5267,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5263,7 +5285,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5281,7 +5303,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5299,7 +5321,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5317,7 +5339,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5335,7 +5357,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5353,7 +5375,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5371,7 +5393,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5389,7 +5411,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5407,7 +5429,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5425,7 +5447,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5443,7 +5465,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5461,7 +5483,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5479,7 +5501,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5497,7 +5519,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5515,7 +5537,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5533,7 +5555,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5551,7 +5573,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5569,7 +5591,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5587,7 +5609,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5605,7 +5627,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5623,7 +5645,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5641,7 +5663,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5659,7 +5681,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5676,7 +5698,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>46722</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5692,7 +5716,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>46753</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5708,7 +5734,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>46784</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5916,42 +5944,90 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="49">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="41"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="43"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="15"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="49">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.116</v>
-      </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="43"/>
-      <c r="I148" s="49">
+        <v>47.307999999999993</v>
+      </c>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="49">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>64.5</v>
       </c>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5999,7 +6075,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,11 +6140,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.9000000000000003E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
+++ b/REGULAR/ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B71C51-DECF-418B-8932-B1D560663D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -258,14 +259,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +301,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,6 +681,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1133,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1176,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1240,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1300,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1366,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1429,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1527,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1586,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1651,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1694,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1769,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1955,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2021,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2079,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2145,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2201,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2276,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2319,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2385,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2441,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2539,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2602,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2651,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2656,25 +2668,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2686,13 +2698,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2701,14 +2713,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3012,7 +3024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3022,7 +3034,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3030,34 +3042,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3708" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3092,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3102,7 +3114,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3124,7 +3136,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3132,7 +3144,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3145,7 +3157,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3162,7 +3174,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3206,7 +3218,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.307999999999993</v>
+        <v>48.557999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3214,14 +3226,14 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
+      <c r="I9" s="63">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.5</v>
+        <v>65.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>47</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3254,18 +3266,24 @@
         <v>1.25</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <f>SUM(C11,E10)-D11</f>
+        <v>1.25</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <f>SUM(G11,I10)-H11</f>
+        <v>1.25</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3274,18 +3292,24 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E75" si="0">SUM(C12,E11)-D12</f>
+        <v>2.5</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <f t="shared" ref="I12:I75" si="1">SUM(G12,I11)-H12</f>
+        <v>2.5</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3294,18 +3318,24 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3314,18 +3344,24 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3334,18 +3370,24 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3354,36 +3396,48 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="43"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H17" s="43"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3394,20 +3448,26 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3418,20 +3478,26 @@
         <v>1.25</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="48">
         <v>43864</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3440,18 +3506,24 @@
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3460,18 +3532,24 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3480,18 +3558,24 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3500,18 +3584,24 @@
         <v>1.25</v>
       </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3522,40 +3612,52 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="48">
         <v>44018</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="48">
         <v>44029</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -3568,20 +3670,26 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="48">
         <v>44083</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -3590,18 +3698,24 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>17.75</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -3610,18 +3724,24 @@
         <v>1.25</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -3630,18 +3750,24 @@
         <v>1.25</v>
       </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -3654,36 +3780,48 @@
       <c r="D30" s="39">
         <v>4</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -3692,18 +3830,24 @@
         <v>1.25</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44228</v>
       </c>
@@ -3714,40 +3858,52 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="48">
         <v>44230</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="48">
         <v>44217</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44256</v>
       </c>
@@ -3756,18 +3912,24 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="39"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44287</v>
       </c>
@@ -3776,18 +3938,24 @@
         <v>1.25</v>
       </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44317</v>
       </c>
@@ -3796,18 +3964,24 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9">
+        <f t="shared" si="1"/>
+        <v>28.75</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44348</v>
       </c>
@@ -3818,20 +3992,26 @@
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="48">
         <v>44368</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44378</v>
       </c>
@@ -3842,7 +4022,10 @@
         <v>1.25</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3851,20 +4034,26 @@
       <c r="H39" s="39">
         <v>1</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="9">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="48">
         <v>44396</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3873,13 +4062,16 @@
       <c r="H40" s="39">
         <v>1</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9">
+        <f t="shared" si="1"/>
+        <v>29.25</v>
+      </c>
       <c r="J40" s="11"/>
       <c r="K40" s="48">
         <v>44399</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -3888,18 +4080,24 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="9">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -3908,18 +4106,24 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <f t="shared" si="1"/>
+        <v>31.75</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -3932,20 +4136,26 @@
       <c r="D43" s="39">
         <v>1</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="48">
         <v>44494</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>52</v>
@@ -3954,20 +4164,26 @@
       <c r="D44" s="39">
         <v>1</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="48">
         <v>44502</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -3980,20 +4196,26 @@
       <c r="D45" s="39">
         <v>1</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>28.25</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="9">
+        <f t="shared" si="1"/>
+        <v>34.25</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="48">
         <v>44515</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>52</v>
@@ -4002,40 +4224,52 @@
       <c r="D46" s="39">
         <v>1</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="9">
+        <f t="shared" si="1"/>
+        <v>34.25</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="48">
         <v>44507</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9">
+        <f t="shared" si="1"/>
+        <v>34.25</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="48">
         <v>44543</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -4048,20 +4282,26 @@
       <c r="D48" s="39">
         <v>1</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="48">
         <v>44557</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>52</v>
@@ -4070,54 +4310,72 @@
       <c r="D49" s="39">
         <v>1</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="39"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="48">
         <v>44539</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44562</v>
       </c>
@@ -4128,20 +4386,26 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>27.75</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9">
+        <f t="shared" si="1"/>
+        <v>36.75</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44593</v>
       </c>
@@ -4152,20 +4416,26 @@
         <v>1.25</v>
       </c>
       <c r="D53" s="39"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4174,20 +4444,26 @@
       <c r="D54" s="39">
         <v>1</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="9">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="48">
         <v>44650</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44621</v>
       </c>
@@ -4200,18 +4476,24 @@
       <c r="D55" s="39">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>29.231000000000002</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9">
+        <f t="shared" si="1"/>
+        <v>39.25</v>
+      </c>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44652</v>
       </c>
@@ -4224,18 +4506,24 @@
       <c r="D56" s="39">
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>30.404</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="9">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44682</v>
       </c>
@@ -4244,18 +4532,24 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>31.654</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="9">
+        <f t="shared" si="1"/>
+        <v>41.75</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44713</v>
       </c>
@@ -4268,18 +4562,24 @@
       <c r="D58" s="39">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>32.86</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44743</v>
       </c>
@@ -4292,18 +4592,24 @@
       <c r="D59" s="39">
         <v>1.2E-2</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>34.097999999999999</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9">
+        <f t="shared" si="1"/>
+        <v>44.25</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44774</v>
       </c>
@@ -4316,18 +4622,24 @@
       <c r="D60" s="39">
         <v>2.5000000000000008E-2</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>35.323</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="9">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44805</v>
       </c>
@@ -4340,18 +4652,24 @@
       <c r="D61" s="39">
         <v>0.09</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>36.482999999999997</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9">
+        <f t="shared" si="1"/>
+        <v>46.75</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44835</v>
       </c>
@@ -4360,18 +4678,24 @@
         <v>1.25</v>
       </c>
       <c r="D62" s="39"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <f t="shared" si="0"/>
+        <v>37.732999999999997</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44866</v>
       </c>
@@ -4382,20 +4706,26 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <f t="shared" si="0"/>
+        <v>38.982999999999997</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="9">
+        <f t="shared" si="1"/>
+        <v>49.25</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="48">
         <v>44872</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44896</v>
       </c>
@@ -4406,7 +4736,10 @@
         <v>1.25</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <f t="shared" si="0"/>
+        <v>40.232999999999997</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -4415,13 +4748,16 @@
       <c r="H64" s="39">
         <v>1</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="48">
         <v>44915</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -4430,18 +4766,24 @@
       <c r="D65" s="39">
         <v>4</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9">
+        <f t="shared" si="0"/>
+        <v>36.232999999999997</v>
+      </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H65" s="39"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="48"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>61</v>
@@ -4450,36 +4792,48 @@
       <c r="D66" s="39">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <f t="shared" si="0"/>
+        <v>36.116</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="48"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <f t="shared" si="0"/>
+        <v>36.116</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H67" s="39"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44927</v>
       </c>
@@ -4492,20 +4846,26 @@
       <c r="D68" s="39">
         <v>1</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <f t="shared" si="0"/>
+        <v>36.366</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9">
+        <f t="shared" si="1"/>
+        <v>50.75</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="48">
         <v>44952</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>71</v>
@@ -4514,18 +4874,24 @@
       <c r="D69" s="39">
         <v>0.14200000000000002</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="9">
+        <f t="shared" si="0"/>
+        <v>36.223999999999997</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H69" s="39"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9">
+        <f t="shared" si="1"/>
+        <v>50.75</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44958</v>
       </c>
@@ -4538,20 +4904,26 @@
       <c r="D70" s="39">
         <v>1</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="9">
+        <f t="shared" si="0"/>
+        <v>36.473999999999997</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="9">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="48">
         <v>44963</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44986</v>
       </c>
@@ -4564,18 +4936,24 @@
       <c r="D71" s="39">
         <v>0.5</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <f t="shared" si="0"/>
+        <v>37.223999999999997</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="9">
+        <f t="shared" si="1"/>
+        <v>53.25</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -4588,20 +4966,26 @@
       <c r="D72" s="39">
         <v>1</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="9">
+        <f t="shared" si="0"/>
+        <v>37.473999999999997</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="48">
         <v>45041</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45047</v>
       </c>
@@ -4610,18 +4994,24 @@
         <v>1.25</v>
       </c>
       <c r="D73" s="39"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="9">
+        <f t="shared" si="0"/>
+        <v>38.723999999999997</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9">
+        <f t="shared" si="1"/>
+        <v>55.75</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45078</v>
       </c>
@@ -4632,40 +5022,52 @@
         <v>1.25</v>
       </c>
       <c r="D74" s="39"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9">
+        <f t="shared" si="0"/>
+        <v>39.973999999999997</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="48">
         <v>45090</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="9">
+        <f t="shared" si="0"/>
+        <v>39.973999999999997</v>
+      </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="9">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="J75" s="11"/>
       <c r="K75" s="48">
         <v>45099</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>69</v>
@@ -4674,18 +5076,24 @@
       <c r="D76" s="39">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9">
+        <f t="shared" ref="E76:E85" si="2">SUM(C76,E75)-D76</f>
+        <v>39.814</v>
+      </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9">
+        <f t="shared" ref="I76:I85" si="3">SUM(G76,I75)-H76</f>
+        <v>57</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="48"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45108</v>
       </c>
@@ -4694,18 +5102,24 @@
         <v>1.25</v>
       </c>
       <c r="D77" s="39"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="9">
+        <f t="shared" si="2"/>
+        <v>41.064</v>
+      </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="9">
+        <f t="shared" si="3"/>
+        <v>58.25</v>
+      </c>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45139</v>
       </c>
@@ -4714,18 +5128,24 @@
         <v>1.25</v>
       </c>
       <c r="D78" s="39"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="9">
+        <f t="shared" si="2"/>
+        <v>42.314</v>
+      </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="9">
+        <f t="shared" si="3"/>
+        <v>59.5</v>
+      </c>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45170</v>
       </c>
@@ -4734,18 +5154,24 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="39"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="9">
+        <f t="shared" si="2"/>
+        <v>43.564</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="9">
+        <f t="shared" si="3"/>
+        <v>60.75</v>
+      </c>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45200</v>
       </c>
@@ -4754,18 +5180,24 @@
         <v>1.25</v>
       </c>
       <c r="D80" s="39"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9">
+        <f t="shared" si="2"/>
+        <v>44.814</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="9">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45231</v>
       </c>
@@ -4776,20 +5208,26 @@
         <v>1.25</v>
       </c>
       <c r="D81" s="39"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="9">
+        <f t="shared" si="2"/>
+        <v>46.064</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="9">
+        <f t="shared" si="3"/>
+        <v>63.25</v>
+      </c>
       <c r="J81" s="11"/>
       <c r="K81" s="48">
         <v>45236</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45261</v>
       </c>
@@ -4800,20 +5238,26 @@
         <v>1.25</v>
       </c>
       <c r="D82" s="39"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9">
+        <f t="shared" si="2"/>
+        <v>47.314</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="9">
+        <f t="shared" si="3"/>
+        <v>64.5</v>
+      </c>
       <c r="J82" s="11"/>
       <c r="K82" s="48">
         <v>45287</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -4822,54 +5266,74 @@
       <c r="D83" s="39">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="9">
+        <f t="shared" si="2"/>
+        <v>47.308</v>
+      </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="9">
+        <f t="shared" si="3"/>
+        <v>64.5</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
         <v>68</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="9">
+        <f t="shared" si="2"/>
+        <v>47.308</v>
+      </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H84" s="39"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="9">
+        <f t="shared" si="3"/>
+        <v>64.5</v>
+      </c>
       <c r="J84" s="11"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45292</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="9">
+        <f t="shared" si="2"/>
+        <v>48.558</v>
+      </c>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="9">
+        <f t="shared" si="3"/>
+        <v>65.75</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45323</v>
       </c>
@@ -4887,7 +5351,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45352</v>
       </c>
@@ -4905,7 +5369,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45383</v>
       </c>
@@ -4923,7 +5387,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45413</v>
       </c>
@@ -4941,7 +5405,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45444</v>
       </c>
@@ -4959,7 +5423,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45474</v>
       </c>
@@ -4977,7 +5441,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45505</v>
       </c>
@@ -4995,7 +5459,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45536</v>
       </c>
@@ -5013,7 +5477,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45566</v>
       </c>
@@ -5031,7 +5495,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45597</v>
       </c>
@@ -5049,7 +5513,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45627</v>
       </c>
@@ -5067,7 +5531,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45658</v>
       </c>
@@ -5085,7 +5549,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45689</v>
       </c>
@@ -5103,7 +5567,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45717</v>
       </c>
@@ -5121,7 +5585,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45748</v>
       </c>
@@ -5139,7 +5603,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45778</v>
       </c>
@@ -5157,7 +5621,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45809</v>
       </c>
@@ -5175,7 +5639,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45839</v>
       </c>
@@ -5193,7 +5657,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45870</v>
       </c>
@@ -5211,7 +5675,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45901</v>
       </c>
@@ -5229,7 +5693,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45931</v>
       </c>
@@ -5247,7 +5711,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45962</v>
       </c>
@@ -5265,7 +5729,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45992</v>
       </c>
@@ -5283,7 +5747,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>46023</v>
       </c>
@@ -5301,7 +5765,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>46054</v>
       </c>
@@ -5319,7 +5783,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>46082</v>
       </c>
@@ -5337,7 +5801,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>46113</v>
       </c>
@@ -5355,7 +5819,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>46143</v>
       </c>
@@ -5373,7 +5837,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>46174</v>
       </c>
@@ -5391,7 +5855,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>46204</v>
       </c>
@@ -5409,7 +5873,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>46235</v>
       </c>
@@ -5427,7 +5891,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46266</v>
       </c>
@@ -5445,7 +5909,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46296</v>
       </c>
@@ -5463,7 +5927,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46327</v>
       </c>
@@ -5481,7 +5945,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46357</v>
       </c>
@@ -5499,7 +5963,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46388</v>
       </c>
@@ -5517,7 +5981,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46419</v>
       </c>
@@ -5535,7 +5999,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46447</v>
       </c>
@@ -5553,7 +6017,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46478</v>
       </c>
@@ -5571,7 +6035,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46508</v>
       </c>
@@ -5589,7 +6053,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46539</v>
       </c>
@@ -5607,7 +6071,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46569</v>
       </c>
@@ -5625,7 +6089,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46600</v>
       </c>
@@ -5643,7 +6107,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46631</v>
       </c>
@@ -5661,7 +6125,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46661</v>
       </c>
@@ -5679,7 +6143,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46692</v>
       </c>
@@ -5697,7 +6161,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46722</v>
       </c>
@@ -5715,7 +6179,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46753</v>
       </c>
@@ -5733,7 +6197,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>46784</v>
       </c>
@@ -5751,7 +6215,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5767,7 +6231,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5783,7 +6247,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5799,7 +6263,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5815,7 +6279,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5831,7 +6295,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5847,7 +6311,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5863,7 +6327,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5879,7 +6343,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5895,7 +6359,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5911,7 +6375,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5927,7 +6391,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5943,7 +6407,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5959,7 +6423,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5975,7 +6439,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5991,7 +6455,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="15"/>
       <c r="C150" s="42"/>
@@ -6007,14 +6471,14 @@
       <c r="J150" s="12"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="15"/>
       <c r="C151" s="42"/>
       <c r="D151" s="43"/>
       <c r="E151" s="49">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.307999999999993</v>
+        <v>48.557999999999993</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="42" t="str">
@@ -6024,7 +6488,7 @@
       <c r="H151" s="43"/>
       <c r="I151" s="49">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.5</v>
+        <v>65.75</v>
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="15"/>
@@ -6043,11 +6507,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6060,8 +6524,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                               OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -6070,7 +6534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -6078,21 +6542,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -6105,7 +6569,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6134,7 +6598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -6156,17 +6620,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6187,7 +6651,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6214,7 +6678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6240,7 +6704,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6266,7 +6730,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6292,7 +6756,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6318,7 +6782,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6344,7 +6808,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6370,7 +6834,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6396,7 +6860,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6416,7 +6880,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6436,7 +6900,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6456,7 +6920,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6477,7 +6941,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6498,7 +6962,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6519,7 +6983,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6540,7 +7004,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6561,7 +7025,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6582,7 +7046,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6603,7 +7067,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6624,7 +7088,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6645,7 +7109,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6666,7 +7130,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6687,7 +7151,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6708,7 +7172,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6729,7 +7193,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6750,7 +7214,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6771,7 +7235,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6792,7 +7256,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6813,7 +7277,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6834,7 +7298,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6855,7 +7319,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6876,7 +7340,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6885,7 +7349,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6894,7 +7358,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6903,7 +7367,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6912,7 +7376,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6921,7 +7385,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6930,7 +7394,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6939,7 +7403,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6948,7 +7412,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6957,7 +7421,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6966,7 +7430,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6975,7 +7439,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6984,7 +7448,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6993,7 +7457,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7002,7 +7466,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7011,7 +7475,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7020,7 +7484,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7029,7 +7493,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7038,7 +7502,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7047,7 +7511,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7056,7 +7520,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7065,7 +7529,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7074,7 +7538,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7083,7 +7547,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7092,7 +7556,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7101,7 +7565,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7110,7 +7574,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7119,7 +7583,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7128,7 +7592,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7137,7 +7601,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
